--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD13-StrategyandForecast_150421.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD13-StrategyandForecast_150421.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DA\cap08-BasesDeDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -93,9 +93,6 @@
     <t>Utility (&gt;1MW), Commercial/Industrial (10kW-1M),Residencial(&lt;10kW),Storage</t>
   </si>
   <si>
-    <t>TB Market Sectors</t>
-  </si>
-  <si>
     <t>Entero</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
   </si>
   <si>
     <t>Texto libre</t>
-  </si>
-  <si>
-    <t>TB IPT Weaknesses</t>
   </si>
   <si>
     <t>Portfolio Weaknesses Comments</t>
@@ -212,9 +206,6 @@
     <t>Action plan comments</t>
   </si>
   <si>
-    <t>TB Activity Types</t>
-  </si>
-  <si>
     <t>Multivalor.
 Con opciones de texto libre</t>
   </si>
@@ -245,6 +236,18 @@
   </si>
   <si>
     <t>Acompañado de un Log con fecha modificación por cada campo. Control de versión.</t>
+  </si>
+  <si>
+    <t>TB Activity Sectors
+[Sector]</t>
+  </si>
+  <si>
+    <t>TB IPT Weaknesses
+[Weakness]</t>
+  </si>
+  <si>
+    <t>TB Activity Types
+[Type]</t>
   </si>
 </sst>
 </file>
@@ -494,6 +497,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -502,39 +538,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -844,43 +847,43 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="23" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.5703125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="2.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.5703125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="31" customFormat="1" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:7" s="28" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="27" t="s">
         <v>7</v>
       </c>
     </row>
@@ -918,7 +921,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -929,7 +932,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -940,136 +943,136 @@
     <row r="5" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1084,199 +1087,199 @@
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:7" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>8</v>
@@ -1286,19 +1289,19 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="30"/>
       <c r="D27" s="1"/>
       <c r="G27" s="6"/>
       <c r="H27" s="3"/>
@@ -1334,41 +1337,41 @@
       <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="26"/>
-      <c r="H31" s="27"/>
+      <c r="B31" s="23"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="H32" s="27"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="H32" s="24"/>
     </row>
     <row r="33" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="H33" s="27"/>
+      <c r="D33" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="H33" s="24"/>
     </row>
     <row r="34" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="D34" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD13-StrategyandForecast_150421.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD13-StrategyandForecast_150421.xlsx
@@ -847,8 +847,8 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
